--- a/Team-Data/2013-14/12-5-2013-14.xlsx
+++ b/Team-Data/2013-14/12-5-2013-14.xlsx
@@ -50,7 +50,6 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -66,6 +65,74 @@
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -753,7 +820,7 @@
         <v>17</v>
       </c>
       <c r="AG2" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AH2" t="n">
         <v>23</v>
@@ -765,7 +832,7 @@
         <v>22</v>
       </c>
       <c r="AK2" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AL2" t="n">
         <v>11</v>
@@ -792,13 +859,13 @@
         <v>14</v>
       </c>
       <c r="AT2" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AU2" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AV2" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AW2" t="n">
         <v>9</v>
@@ -831,7 +898,7 @@
       </c>
       <c r="BF2" t="inlineStr">
         <is>
-          <t>12-5-2013-14</t>
+          <t>2013-12-05</t>
         </is>
       </c>
     </row>
@@ -956,7 +1023,7 @@
         <v>26</v>
       </c>
       <c r="AN3" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AO3" t="n">
         <v>26</v>
@@ -965,16 +1032,16 @@
         <v>27</v>
       </c>
       <c r="AQ3" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AR3" t="n">
         <v>18</v>
       </c>
       <c r="AS3" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AT3" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AU3" t="n">
         <v>28</v>
@@ -986,7 +1053,7 @@
         <v>20</v>
       </c>
       <c r="AX3" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AY3" t="n">
         <v>15</v>
@@ -998,7 +1065,7 @@
         <v>26</v>
       </c>
       <c r="BB3" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="BC3" t="n">
         <v>23</v>
@@ -1013,7 +1080,7 @@
       </c>
       <c r="BF3" t="inlineStr">
         <is>
-          <t>12-5-2013-14</t>
+          <t>2013-12-05</t>
         </is>
       </c>
     </row>
@@ -1030,118 +1097,118 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E4" t="n">
         <v>5</v>
       </c>
       <c r="F4" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G4" t="n">
-        <v>0.263</v>
+        <v>0.278</v>
       </c>
       <c r="H4" t="n">
-        <v>48.5</v>
+        <v>48.6</v>
       </c>
       <c r="I4" t="n">
-        <v>34.2</v>
+        <v>34.5</v>
       </c>
       <c r="J4" t="n">
-        <v>79.59999999999999</v>
+        <v>79.90000000000001</v>
       </c>
       <c r="K4" t="n">
-        <v>0.43</v>
+        <v>0.432</v>
       </c>
       <c r="L4" t="n">
-        <v>6.3</v>
+        <v>6.4</v>
       </c>
       <c r="M4" t="n">
-        <v>18.4</v>
+        <v>18.5</v>
       </c>
       <c r="N4" t="n">
-        <v>0.344</v>
+        <v>0.348</v>
       </c>
       <c r="O4" t="n">
-        <v>19.9</v>
+        <v>19.8</v>
       </c>
       <c r="P4" t="n">
-        <v>26.5</v>
+        <v>26.3</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.75</v>
+        <v>0.755</v>
       </c>
       <c r="R4" t="n">
-        <v>10.8</v>
+        <v>10.6</v>
       </c>
       <c r="S4" t="n">
-        <v>30.4</v>
+        <v>31</v>
       </c>
       <c r="T4" t="n">
-        <v>41.2</v>
+        <v>41.6</v>
       </c>
       <c r="U4" t="n">
-        <v>19.3</v>
+        <v>19.7</v>
       </c>
       <c r="V4" t="n">
         <v>14.8</v>
       </c>
       <c r="W4" t="n">
-        <v>6.9</v>
+        <v>7.1</v>
       </c>
       <c r="X4" t="n">
         <v>4.3</v>
       </c>
       <c r="Y4" t="n">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="Z4" t="n">
-        <v>22.5</v>
+        <v>22.4</v>
       </c>
       <c r="AA4" t="n">
-        <v>21.9</v>
+        <v>21.5</v>
       </c>
       <c r="AB4" t="n">
-        <v>94.59999999999999</v>
+        <v>95.3</v>
       </c>
       <c r="AC4" t="n">
-        <v>-8.699999999999999</v>
+        <v>-7.6</v>
       </c>
       <c r="AD4" t="n">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="AE4" t="n">
         <v>26</v>
       </c>
       <c r="AF4" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AG4" t="n">
         <v>26</v>
       </c>
       <c r="AH4" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AI4" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AJ4" t="n">
         <v>27</v>
       </c>
       <c r="AK4" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="AL4" t="n">
         <v>23</v>
       </c>
       <c r="AM4" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AN4" t="n">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="AO4" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AP4" t="n">
         <v>5</v>
@@ -1150,37 +1217,37 @@
         <v>17</v>
       </c>
       <c r="AR4" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AS4" t="n">
+        <v>17</v>
+      </c>
+      <c r="AT4" t="n">
+        <v>19</v>
+      </c>
+      <c r="AU4" t="n">
         <v>23</v>
       </c>
-      <c r="AT4" t="n">
-        <v>20</v>
-      </c>
-      <c r="AU4" t="n">
+      <c r="AV4" t="n">
+        <v>10</v>
+      </c>
+      <c r="AW4" t="n">
+        <v>22</v>
+      </c>
+      <c r="AX4" t="n">
+        <v>24</v>
+      </c>
+      <c r="AY4" t="n">
+        <v>7</v>
+      </c>
+      <c r="AZ4" t="n">
         <v>25</v>
       </c>
-      <c r="AV4" t="n">
-        <v>12</v>
-      </c>
-      <c r="AW4" t="n">
-        <v>25</v>
-      </c>
-      <c r="AX4" t="n">
-        <v>25</v>
-      </c>
-      <c r="AY4" t="n">
-        <v>13</v>
-      </c>
-      <c r="AZ4" t="n">
-        <v>26</v>
-      </c>
       <c r="BA4" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="BB4" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="BC4" t="n">
         <v>28</v>
@@ -1195,7 +1262,7 @@
       </c>
       <c r="BF4" t="inlineStr">
         <is>
-          <t>12-5-2013-14</t>
+          <t>2013-12-05</t>
         </is>
       </c>
     </row>
@@ -1290,7 +1357,7 @@
         <v>-2.9</v>
       </c>
       <c r="AD5" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AE5" t="n">
         <v>19</v>
@@ -1326,7 +1393,7 @@
         <v>7</v>
       </c>
       <c r="AP5" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AQ5" t="n">
         <v>28</v>
@@ -1344,7 +1411,7 @@
         <v>29</v>
       </c>
       <c r="AV5" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AW5" t="n">
         <v>28</v>
@@ -1377,7 +1444,7 @@
       </c>
       <c r="BF5" t="inlineStr">
         <is>
-          <t>12-5-2013-14</t>
+          <t>2013-12-05</t>
         </is>
       </c>
     </row>
@@ -1394,91 +1461,91 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E6" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F6" t="n">
         <v>9</v>
       </c>
       <c r="G6" t="n">
-        <v>0.471</v>
+        <v>0.438</v>
       </c>
       <c r="H6" t="n">
-        <v>49.2</v>
+        <v>49.3</v>
       </c>
       <c r="I6" t="n">
-        <v>35.8</v>
+        <v>35.7</v>
       </c>
       <c r="J6" t="n">
-        <v>81.8</v>
+        <v>82.3</v>
       </c>
       <c r="K6" t="n">
-        <v>0.437</v>
+        <v>0.434</v>
       </c>
       <c r="L6" t="n">
-        <v>5.4</v>
+        <v>5.1</v>
       </c>
       <c r="M6" t="n">
-        <v>15.6</v>
+        <v>15.4</v>
       </c>
       <c r="N6" t="n">
-        <v>0.347</v>
+        <v>0.333</v>
       </c>
       <c r="O6" t="n">
-        <v>18.4</v>
+        <v>18.1</v>
       </c>
       <c r="P6" t="n">
-        <v>23.5</v>
+        <v>23</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.78</v>
+        <v>0.785</v>
       </c>
       <c r="R6" t="n">
         <v>12.7</v>
       </c>
       <c r="S6" t="n">
-        <v>33.8</v>
+        <v>33.7</v>
       </c>
       <c r="T6" t="n">
-        <v>46.5</v>
+        <v>46.4</v>
       </c>
       <c r="U6" t="n">
-        <v>22.4</v>
+        <v>22.3</v>
       </c>
       <c r="V6" t="n">
         <v>16.5</v>
       </c>
       <c r="W6" t="n">
-        <v>6.1</v>
+        <v>6.3</v>
       </c>
       <c r="X6" t="n">
-        <v>4.1</v>
+        <v>4.3</v>
       </c>
       <c r="Y6" t="n">
         <v>6.4</v>
       </c>
       <c r="Z6" t="n">
-        <v>20.2</v>
+        <v>20.3</v>
       </c>
       <c r="AA6" t="n">
-        <v>21.9</v>
+        <v>21.7</v>
       </c>
       <c r="AB6" t="n">
-        <v>95.3</v>
+        <v>94.59999999999999</v>
       </c>
       <c r="AC6" t="n">
-        <v>1.2</v>
+        <v>0</v>
       </c>
       <c r="AD6" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="AE6" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AF6" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AG6" t="n">
         <v>19</v>
@@ -1487,10 +1554,10 @@
         <v>2</v>
       </c>
       <c r="AI6" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AJ6" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="AK6" t="n">
         <v>21</v>
@@ -1502,13 +1569,13 @@
         <v>28</v>
       </c>
       <c r="AN6" t="n">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="AO6" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AP6" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AQ6" t="n">
         <v>5</v>
@@ -1517,13 +1584,13 @@
         <v>5</v>
       </c>
       <c r="AS6" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AT6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AU6" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AV6" t="n">
         <v>23</v>
@@ -1541,10 +1608,10 @@
         <v>10</v>
       </c>
       <c r="BA6" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="BB6" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="BC6" t="n">
         <v>14</v>
@@ -1559,7 +1626,7 @@
       </c>
       <c r="BF6" t="inlineStr">
         <is>
-          <t>12-5-2013-14</t>
+          <t>2013-12-05</t>
         </is>
       </c>
     </row>
@@ -1654,7 +1721,7 @@
         <v>-7.3</v>
       </c>
       <c r="AD7" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AE7" t="n">
         <v>23</v>
@@ -1687,7 +1754,7 @@
         <v>16</v>
       </c>
       <c r="AO7" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AP7" t="n">
         <v>23</v>
@@ -1702,7 +1769,7 @@
         <v>16</v>
       </c>
       <c r="AT7" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AU7" t="n">
         <v>27</v>
@@ -1714,7 +1781,7 @@
         <v>10</v>
       </c>
       <c r="AX7" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AY7" t="n">
         <v>25</v>
@@ -1741,7 +1808,7 @@
       </c>
       <c r="BF7" t="inlineStr">
         <is>
-          <t>12-5-2013-14</t>
+          <t>2013-12-05</t>
         </is>
       </c>
     </row>
@@ -1839,7 +1906,7 @@
         <v>1</v>
       </c>
       <c r="AE8" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AF8" t="n">
         <v>9</v>
@@ -1857,7 +1924,7 @@
         <v>11</v>
       </c>
       <c r="AK8" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AL8" t="n">
         <v>7</v>
@@ -1881,16 +1948,16 @@
         <v>24</v>
       </c>
       <c r="AS8" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="AT8" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AU8" t="n">
         <v>12</v>
       </c>
       <c r="AV8" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AW8" t="n">
         <v>6</v>
@@ -1899,7 +1966,7 @@
         <v>20</v>
       </c>
       <c r="AY8" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AZ8" t="n">
         <v>16</v>
@@ -1908,7 +1975,7 @@
         <v>25</v>
       </c>
       <c r="BB8" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="BC8" t="n">
         <v>11</v>
@@ -1923,7 +1990,7 @@
       </c>
       <c r="BF8" t="inlineStr">
         <is>
-          <t>12-5-2013-14</t>
+          <t>2013-12-05</t>
         </is>
       </c>
     </row>
@@ -2018,7 +2085,7 @@
         <v>2.8</v>
       </c>
       <c r="AD9" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AE9" t="n">
         <v>9</v>
@@ -2042,7 +2109,7 @@
         <v>11</v>
       </c>
       <c r="AL9" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AM9" t="n">
         <v>15</v>
@@ -2051,7 +2118,7 @@
         <v>10</v>
       </c>
       <c r="AO9" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AP9" t="n">
         <v>9</v>
@@ -2075,7 +2142,7 @@
         <v>7</v>
       </c>
       <c r="AW9" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AX9" t="n">
         <v>6</v>
@@ -2087,7 +2154,7 @@
         <v>24</v>
       </c>
       <c r="BA9" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="BB9" t="n">
         <v>5</v>
@@ -2105,7 +2172,7 @@
       </c>
       <c r="BF9" t="inlineStr">
         <is>
-          <t>12-5-2013-14</t>
+          <t>2013-12-05</t>
         </is>
       </c>
     </row>
@@ -2200,7 +2267,7 @@
         <v>-0.1</v>
       </c>
       <c r="AD10" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AE10" t="n">
         <v>13</v>
@@ -2266,7 +2333,7 @@
         <v>18</v>
       </c>
       <c r="AZ10" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="BA10" t="n">
         <v>14</v>
@@ -2287,7 +2354,7 @@
       </c>
       <c r="BF10" t="inlineStr">
         <is>
-          <t>12-5-2013-14</t>
+          <t>2013-12-05</t>
         </is>
       </c>
     </row>
@@ -2382,7 +2449,7 @@
         <v>3.6</v>
       </c>
       <c r="AD11" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AE11" t="n">
         <v>9</v>
@@ -2394,7 +2461,7 @@
         <v>10</v>
       </c>
       <c r="AH11" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AI11" t="n">
         <v>8</v>
@@ -2409,7 +2476,7 @@
         <v>2</v>
       </c>
       <c r="AM11" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AN11" t="n">
         <v>1</v>
@@ -2448,13 +2515,13 @@
         <v>10</v>
       </c>
       <c r="AZ11" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="BA11" t="n">
         <v>13</v>
       </c>
       <c r="BB11" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="BC11" t="n">
         <v>9</v>
@@ -2469,7 +2536,7 @@
       </c>
       <c r="BF11" t="inlineStr">
         <is>
-          <t>12-5-2013-14</t>
+          <t>2013-12-05</t>
         </is>
       </c>
     </row>
@@ -2603,7 +2670,7 @@
         <v>1</v>
       </c>
       <c r="AQ12" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AR12" t="n">
         <v>14</v>
@@ -2612,7 +2679,7 @@
         <v>2</v>
       </c>
       <c r="AT12" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AU12" t="n">
         <v>20</v>
@@ -2651,7 +2718,7 @@
       </c>
       <c r="BF12" t="inlineStr">
         <is>
-          <t>12-5-2013-14</t>
+          <t>2013-12-05</t>
         </is>
       </c>
     </row>
@@ -2746,7 +2813,7 @@
         <v>10.2</v>
       </c>
       <c r="AD13" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AE13" t="n">
         <v>1</v>
@@ -2782,7 +2849,7 @@
         <v>12</v>
       </c>
       <c r="AP13" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AQ13" t="n">
         <v>8</v>
@@ -2800,7 +2867,7 @@
         <v>19</v>
       </c>
       <c r="AV13" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AW13" t="n">
         <v>19</v>
@@ -2833,7 +2900,7 @@
       </c>
       <c r="BF13" t="inlineStr">
         <is>
-          <t>12-5-2013-14</t>
+          <t>2013-12-05</t>
         </is>
       </c>
     </row>
@@ -2850,16 +2917,16 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E14" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F14" t="n">
         <v>7</v>
       </c>
       <c r="G14" t="n">
-        <v>0.65</v>
+        <v>0.632</v>
       </c>
       <c r="H14" t="n">
         <v>48.3</v>
@@ -2868,79 +2935,79 @@
         <v>39</v>
       </c>
       <c r="J14" t="n">
-        <v>82.09999999999999</v>
+        <v>82.2</v>
       </c>
       <c r="K14" t="n">
         <v>0.474</v>
       </c>
       <c r="L14" t="n">
-        <v>8.1</v>
+        <v>7.9</v>
       </c>
       <c r="M14" t="n">
-        <v>23.3</v>
+        <v>23.4</v>
       </c>
       <c r="N14" t="n">
-        <v>0.346</v>
+        <v>0.337</v>
       </c>
       <c r="O14" t="n">
-        <v>19.8</v>
+        <v>20.1</v>
       </c>
       <c r="P14" t="n">
-        <v>27.8</v>
+        <v>28.3</v>
       </c>
       <c r="Q14" t="n">
-        <v>0.71</v>
+        <v>0.708</v>
       </c>
       <c r="R14" t="n">
         <v>10.7</v>
       </c>
       <c r="S14" t="n">
-        <v>32.2</v>
+        <v>32.3</v>
       </c>
       <c r="T14" t="n">
-        <v>42.8</v>
+        <v>42.9</v>
       </c>
       <c r="U14" t="n">
-        <v>24.4</v>
+        <v>24.5</v>
       </c>
       <c r="V14" t="n">
-        <v>14.8</v>
+        <v>14.7</v>
       </c>
       <c r="W14" t="n">
-        <v>8.1</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="X14" t="n">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="Y14" t="n">
-        <v>3.7</v>
+        <v>3.8</v>
       </c>
       <c r="Z14" t="n">
         <v>23.1</v>
       </c>
       <c r="AA14" t="n">
-        <v>24.2</v>
+        <v>24.5</v>
       </c>
       <c r="AB14" t="n">
-        <v>105.7</v>
+        <v>105.9</v>
       </c>
       <c r="AC14" t="n">
-        <v>4.7</v>
+        <v>3.8</v>
       </c>
       <c r="AD14" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="AE14" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AF14" t="n">
         <v>6</v>
       </c>
       <c r="AG14" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AH14" t="n">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="AI14" t="n">
         <v>5</v>
@@ -2952,31 +3019,31 @@
         <v>4</v>
       </c>
       <c r="AL14" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AM14" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AN14" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="AO14" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AP14" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AQ14" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AR14" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AS14" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AT14" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AU14" t="n">
         <v>2</v>
@@ -2985,13 +3052,13 @@
         <v>9</v>
       </c>
       <c r="AW14" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="AX14" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AY14" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AZ14" t="n">
         <v>27</v>
@@ -3000,10 +3067,10 @@
         <v>2</v>
       </c>
       <c r="BB14" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="BC14" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="BD14" t="n">
         <v>10</v>
@@ -3015,7 +3082,7 @@
       </c>
       <c r="BF14" t="inlineStr">
         <is>
-          <t>12-5-2013-14</t>
+          <t>2013-12-05</t>
         </is>
       </c>
     </row>
@@ -3110,22 +3177,22 @@
         <v>-1.9</v>
       </c>
       <c r="AD15" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AE15" t="n">
         <v>13</v>
       </c>
       <c r="AF15" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AG15" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AH15" t="n">
         <v>23</v>
       </c>
       <c r="AI15" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AJ15" t="n">
         <v>4</v>
@@ -3140,7 +3207,7 @@
         <v>2</v>
       </c>
       <c r="AN15" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AO15" t="n">
         <v>27</v>
@@ -3155,13 +3222,13 @@
         <v>20</v>
       </c>
       <c r="AS15" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AT15" t="n">
         <v>9</v>
       </c>
       <c r="AU15" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AV15" t="n">
         <v>13</v>
@@ -3173,7 +3240,7 @@
         <v>4</v>
       </c>
       <c r="AY15" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AZ15" t="n">
         <v>20</v>
@@ -3185,7 +3252,7 @@
         <v>13</v>
       </c>
       <c r="BC15" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="BD15" t="n">
         <v>10</v>
@@ -3197,7 +3264,7 @@
       </c>
       <c r="BF15" t="inlineStr">
         <is>
-          <t>12-5-2013-14</t>
+          <t>2013-12-05</t>
         </is>
       </c>
     </row>
@@ -3214,43 +3281,43 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E16" t="n">
         <v>9</v>
       </c>
       <c r="F16" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G16" t="n">
-        <v>0.5</v>
+        <v>0.529</v>
       </c>
       <c r="H16" t="n">
         <v>48.6</v>
       </c>
       <c r="I16" t="n">
-        <v>36.7</v>
+        <v>37.1</v>
       </c>
       <c r="J16" t="n">
-        <v>80.2</v>
+        <v>80.40000000000001</v>
       </c>
       <c r="K16" t="n">
-        <v>0.457</v>
+        <v>0.462</v>
       </c>
       <c r="L16" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="M16" t="n">
         <v>13.7</v>
       </c>
       <c r="N16" t="n">
-        <v>0.321</v>
+        <v>0.326</v>
       </c>
       <c r="O16" t="n">
-        <v>16.1</v>
+        <v>15.8</v>
       </c>
       <c r="P16" t="n">
-        <v>20.8</v>
+        <v>20.5</v>
       </c>
       <c r="Q16" t="n">
         <v>0.773</v>
@@ -3259,52 +3326,52 @@
         <v>10.2</v>
       </c>
       <c r="S16" t="n">
-        <v>30.7</v>
+        <v>30.9</v>
       </c>
       <c r="T16" t="n">
-        <v>40.9</v>
+        <v>41.1</v>
       </c>
       <c r="U16" t="n">
-        <v>22.1</v>
+        <v>22.5</v>
       </c>
       <c r="V16" t="n">
-        <v>14.3</v>
+        <v>14.1</v>
       </c>
       <c r="W16" t="n">
-        <v>7.2</v>
+        <v>7.1</v>
       </c>
       <c r="X16" t="n">
-        <v>4.2</v>
+        <v>4.4</v>
       </c>
       <c r="Y16" t="n">
         <v>5.1</v>
       </c>
       <c r="Z16" t="n">
-        <v>20.2</v>
+        <v>20.3</v>
       </c>
       <c r="AA16" t="n">
-        <v>20</v>
+        <v>19.8</v>
       </c>
       <c r="AB16" t="n">
-        <v>93.8</v>
+        <v>94.5</v>
       </c>
       <c r="AC16" t="n">
-        <v>-2.2</v>
+        <v>-1.1</v>
       </c>
       <c r="AD16" t="n">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="AE16" t="n">
         <v>13</v>
       </c>
       <c r="AF16" t="n">
+        <v>9</v>
+      </c>
+      <c r="AG16" t="n">
         <v>11</v>
       </c>
-      <c r="AG16" t="n">
-        <v>12</v>
-      </c>
       <c r="AH16" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AI16" t="n">
         <v>19</v>
@@ -3313,7 +3380,7 @@
         <v>25</v>
       </c>
       <c r="AK16" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AL16" t="n">
         <v>30</v>
@@ -3322,10 +3389,10 @@
         <v>30</v>
       </c>
       <c r="AN16" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="AO16" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AP16" t="n">
         <v>25</v>
@@ -3337,37 +3404,37 @@
         <v>23</v>
       </c>
       <c r="AS16" t="n">
+        <v>19</v>
+      </c>
+      <c r="AT16" t="n">
         <v>21</v>
       </c>
-      <c r="AT16" t="n">
-        <v>25</v>
-      </c>
       <c r="AU16" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AV16" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AW16" t="n">
         <v>21</v>
       </c>
       <c r="AX16" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AY16" t="n">
         <v>19</v>
       </c>
       <c r="AZ16" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="BA16" t="n">
         <v>20</v>
       </c>
       <c r="BB16" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="BC16" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="BD16" t="n">
         <v>10</v>
@@ -3379,7 +3446,7 @@
       </c>
       <c r="BF16" t="inlineStr">
         <is>
-          <t>12-5-2013-14</t>
+          <t>2013-12-05</t>
         </is>
       </c>
     </row>
@@ -3396,61 +3463,61 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E17" t="n">
         <v>14</v>
       </c>
       <c r="F17" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G17" t="n">
-        <v>0.737</v>
+        <v>0.778</v>
       </c>
       <c r="H17" t="n">
         <v>48</v>
       </c>
       <c r="I17" t="n">
-        <v>37.8</v>
+        <v>38.2</v>
       </c>
       <c r="J17" t="n">
-        <v>75.2</v>
+        <v>75.09999999999999</v>
       </c>
       <c r="K17" t="n">
-        <v>0.503</v>
+        <v>0.508</v>
       </c>
       <c r="L17" t="n">
-        <v>8.5</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="M17" t="n">
-        <v>21.2</v>
+        <v>21.1</v>
       </c>
       <c r="N17" t="n">
-        <v>0.403</v>
+        <v>0.411</v>
       </c>
       <c r="O17" t="n">
-        <v>19</v>
+        <v>19.1</v>
       </c>
       <c r="P17" t="n">
-        <v>24.9</v>
+        <v>25</v>
       </c>
       <c r="Q17" t="n">
-        <v>0.762</v>
+        <v>0.764</v>
       </c>
       <c r="R17" t="n">
         <v>6.4</v>
       </c>
       <c r="S17" t="n">
-        <v>28.8</v>
+        <v>29.2</v>
       </c>
       <c r="T17" t="n">
-        <v>35.2</v>
+        <v>35.7</v>
       </c>
       <c r="U17" t="n">
-        <v>23.8</v>
+        <v>24.3</v>
       </c>
       <c r="V17" t="n">
-        <v>15.6</v>
+        <v>16</v>
       </c>
       <c r="W17" t="n">
         <v>9.300000000000001</v>
@@ -3459,37 +3526,37 @@
         <v>4.9</v>
       </c>
       <c r="Y17" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="Z17" t="n">
-        <v>20.5</v>
+        <v>20.2</v>
       </c>
       <c r="AA17" t="n">
-        <v>21.8</v>
+        <v>21.9</v>
       </c>
       <c r="AB17" t="n">
-        <v>103.2</v>
+        <v>104.1</v>
       </c>
       <c r="AC17" t="n">
-        <v>6.6</v>
+        <v>8.1</v>
       </c>
       <c r="AD17" t="n">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="AE17" t="n">
         <v>4</v>
       </c>
       <c r="AF17" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AG17" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AH17" t="n">
         <v>23</v>
       </c>
       <c r="AI17" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AJ17" t="n">
         <v>30</v>
@@ -3498,13 +3565,13 @@
         <v>1</v>
       </c>
       <c r="AL17" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AM17" t="n">
         <v>16</v>
       </c>
       <c r="AN17" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="AO17" t="n">
         <v>8</v>
@@ -3513,40 +3580,40 @@
         <v>10</v>
       </c>
       <c r="AQ17" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AR17" t="n">
         <v>30</v>
       </c>
       <c r="AS17" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AT17" t="n">
         <v>30</v>
       </c>
       <c r="AU17" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AV17" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AW17" t="n">
         <v>4</v>
       </c>
       <c r="AX17" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AY17" t="n">
         <v>1</v>
       </c>
       <c r="AZ17" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="BA17" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="BB17" t="n">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="BC17" t="n">
         <v>3</v>
@@ -3561,7 +3628,7 @@
       </c>
       <c r="BF17" t="inlineStr">
         <is>
-          <t>12-5-2013-14</t>
+          <t>2013-12-05</t>
         </is>
       </c>
     </row>
@@ -3656,10 +3723,10 @@
         <v>-9.300000000000001</v>
       </c>
       <c r="AD18" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AE18" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AF18" t="n">
         <v>29</v>
@@ -3668,7 +3735,7 @@
         <v>30</v>
       </c>
       <c r="AH18" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AI18" t="n">
         <v>29</v>
@@ -3701,7 +3768,7 @@
         <v>19</v>
       </c>
       <c r="AS18" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AT18" t="n">
         <v>29</v>
@@ -3743,7 +3810,7 @@
       </c>
       <c r="BF18" t="inlineStr">
         <is>
-          <t>12-5-2013-14</t>
+          <t>2013-12-05</t>
         </is>
       </c>
     </row>
@@ -3838,7 +3905,7 @@
         <v>4.1</v>
       </c>
       <c r="AD19" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AE19" t="n">
         <v>13</v>
@@ -3862,13 +3929,13 @@
         <v>25</v>
       </c>
       <c r="AL19" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AM19" t="n">
         <v>5</v>
       </c>
       <c r="AN19" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AO19" t="n">
         <v>3</v>
@@ -3910,10 +3977,10 @@
         <v>6</v>
       </c>
       <c r="BB19" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BC19" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BD19" t="n">
         <v>10</v>
@@ -3925,7 +3992,7 @@
       </c>
       <c r="BF19" t="inlineStr">
         <is>
-          <t>12-5-2013-14</t>
+          <t>2013-12-05</t>
         </is>
       </c>
     </row>
@@ -4020,16 +4087,16 @@
         <v>1.7</v>
       </c>
       <c r="AD20" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AE20" t="n">
         <v>13</v>
       </c>
       <c r="AF20" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AG20" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AH20" t="n">
         <v>5</v>
@@ -4050,7 +4117,7 @@
         <v>27</v>
       </c>
       <c r="AN20" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AO20" t="n">
         <v>13</v>
@@ -4092,7 +4159,7 @@
         <v>18</v>
       </c>
       <c r="BB20" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="BC20" t="n">
         <v>12</v>
@@ -4107,7 +4174,7 @@
       </c>
       <c r="BF20" t="inlineStr">
         <is>
-          <t>12-5-2013-14</t>
+          <t>2013-12-05</t>
         </is>
       </c>
     </row>
@@ -4124,115 +4191,115 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E21" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F21" t="n">
         <v>13</v>
       </c>
       <c r="G21" t="n">
-        <v>0.235</v>
+        <v>0.188</v>
       </c>
       <c r="H21" t="n">
         <v>48.3</v>
       </c>
       <c r="I21" t="n">
-        <v>36</v>
+        <v>35.5</v>
       </c>
       <c r="J21" t="n">
-        <v>83.90000000000001</v>
+        <v>84.40000000000001</v>
       </c>
       <c r="K21" t="n">
-        <v>0.429</v>
+        <v>0.421</v>
       </c>
       <c r="L21" t="n">
-        <v>8.6</v>
+        <v>8.1</v>
       </c>
       <c r="M21" t="n">
-        <v>25.4</v>
+        <v>25.3</v>
       </c>
       <c r="N21" t="n">
-        <v>0.339</v>
+        <v>0.322</v>
       </c>
       <c r="O21" t="n">
-        <v>13.4</v>
+        <v>13.7</v>
       </c>
       <c r="P21" t="n">
-        <v>17.5</v>
+        <v>17.9</v>
       </c>
       <c r="Q21" t="n">
-        <v>0.768</v>
+        <v>0.766</v>
       </c>
       <c r="R21" t="n">
-        <v>11.1</v>
+        <v>11.4</v>
       </c>
       <c r="S21" t="n">
-        <v>28.8</v>
+        <v>29.1</v>
       </c>
       <c r="T21" t="n">
-        <v>39.9</v>
+        <v>40.5</v>
       </c>
       <c r="U21" t="n">
-        <v>19.8</v>
+        <v>19.5</v>
       </c>
       <c r="V21" t="n">
-        <v>12.8</v>
+        <v>12.9</v>
       </c>
       <c r="W21" t="n">
-        <v>8.1</v>
+        <v>7.9</v>
       </c>
       <c r="X21" t="n">
-        <v>4.9</v>
+        <v>4.8</v>
       </c>
       <c r="Y21" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="Z21" t="n">
-        <v>23.6</v>
+        <v>23.3</v>
       </c>
       <c r="AA21" t="n">
-        <v>18.7</v>
+        <v>18.3</v>
       </c>
       <c r="AB21" t="n">
-        <v>94</v>
+        <v>92.8</v>
       </c>
       <c r="AC21" t="n">
-        <v>-4.1</v>
+        <v>-6.3</v>
       </c>
       <c r="AD21" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="AE21" t="n">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="AF21" t="n">
         <v>27</v>
       </c>
       <c r="AG21" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AH21" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AI21" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AJ21" t="n">
         <v>8</v>
       </c>
       <c r="AK21" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AL21" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AM21" t="n">
         <v>4</v>
       </c>
       <c r="AN21" t="n">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="AO21" t="n">
         <v>29</v>
@@ -4241,7 +4308,7 @@
         <v>29</v>
       </c>
       <c r="AQ21" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AR21" t="n">
         <v>13</v>
@@ -4250,31 +4317,31 @@
         <v>29</v>
       </c>
       <c r="AT21" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="AU21" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AV21" t="n">
         <v>1</v>
       </c>
       <c r="AW21" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="AX21" t="n">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="AY21" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="AZ21" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="BA21" t="n">
         <v>28</v>
       </c>
       <c r="BB21" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="BC21" t="n">
         <v>25</v>
@@ -4289,7 +4356,7 @@
       </c>
       <c r="BF21" t="inlineStr">
         <is>
-          <t>12-5-2013-14</t>
+          <t>2013-12-05</t>
         </is>
       </c>
     </row>
@@ -4384,7 +4451,7 @@
         <v>4.1</v>
       </c>
       <c r="AD22" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AE22" t="n">
         <v>5</v>
@@ -4393,7 +4460,7 @@
         <v>4</v>
       </c>
       <c r="AG22" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AH22" t="n">
         <v>9</v>
@@ -4411,10 +4478,10 @@
         <v>24</v>
       </c>
       <c r="AM22" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AN22" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AO22" t="n">
         <v>2</v>
@@ -4447,7 +4514,7 @@
         <v>5</v>
       </c>
       <c r="AY22" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AZ22" t="n">
         <v>21</v>
@@ -4456,10 +4523,10 @@
         <v>16</v>
       </c>
       <c r="BB22" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BC22" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="BD22" t="n">
         <v>10</v>
@@ -4471,7 +4538,7 @@
       </c>
       <c r="BF22" t="inlineStr">
         <is>
-          <t>12-5-2013-14</t>
+          <t>2013-12-05</t>
         </is>
       </c>
     </row>
@@ -4566,7 +4633,7 @@
         <v>-2.5</v>
       </c>
       <c r="AD23" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AE23" t="n">
         <v>23</v>
@@ -4581,10 +4648,10 @@
         <v>5</v>
       </c>
       <c r="AI23" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AJ23" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="AK23" t="n">
         <v>7</v>
@@ -4605,7 +4672,7 @@
         <v>22</v>
       </c>
       <c r="AQ23" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AR23" t="n">
         <v>27</v>
@@ -4653,7 +4720,7 @@
       </c>
       <c r="BF23" t="inlineStr">
         <is>
-          <t>12-5-2013-14</t>
+          <t>2013-12-05</t>
         </is>
       </c>
     </row>
@@ -4748,10 +4815,10 @@
         <v>-6.6</v>
       </c>
       <c r="AD24" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AE24" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AF24" t="n">
         <v>22</v>
@@ -4778,7 +4845,7 @@
         <v>10</v>
       </c>
       <c r="AN24" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AO24" t="n">
         <v>17</v>
@@ -4835,7 +4902,7 @@
       </c>
       <c r="BF24" t="inlineStr">
         <is>
-          <t>12-5-2013-14</t>
+          <t>2013-12-05</t>
         </is>
       </c>
     </row>
@@ -4930,16 +4997,16 @@
         <v>1.3</v>
       </c>
       <c r="AD25" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AE25" t="n">
         <v>11</v>
       </c>
       <c r="AF25" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AG25" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AH25" t="n">
         <v>16</v>
@@ -4975,25 +5042,25 @@
         <v>21</v>
       </c>
       <c r="AS25" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="AT25" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AU25" t="n">
         <v>26</v>
       </c>
       <c r="AV25" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AW25" t="n">
         <v>8</v>
       </c>
       <c r="AX25" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AY25" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AZ25" t="n">
         <v>15</v>
@@ -5017,7 +5084,7 @@
       </c>
       <c r="BF25" t="inlineStr">
         <is>
-          <t>12-5-2013-14</t>
+          <t>2013-12-05</t>
         </is>
       </c>
     </row>
@@ -5112,7 +5179,7 @@
         <v>5.1</v>
       </c>
       <c r="AD26" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AE26" t="n">
         <v>2</v>
@@ -5142,7 +5209,7 @@
         <v>9</v>
       </c>
       <c r="AN26" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AO26" t="n">
         <v>11</v>
@@ -5199,7 +5266,7 @@
       </c>
       <c r="BF26" t="inlineStr">
         <is>
-          <t>12-5-2013-14</t>
+          <t>2013-12-05</t>
         </is>
       </c>
     </row>
@@ -5294,7 +5361,7 @@
         <v>-3.7</v>
       </c>
       <c r="AD27" t="n">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="AE27" t="n">
         <v>27</v>
@@ -5315,7 +5382,7 @@
         <v>9</v>
       </c>
       <c r="AK27" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AL27" t="n">
         <v>19</v>
@@ -5324,7 +5391,7 @@
         <v>13</v>
       </c>
       <c r="AN27" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AO27" t="n">
         <v>16</v>
@@ -5342,7 +5409,7 @@
         <v>24</v>
       </c>
       <c r="AT27" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AU27" t="n">
         <v>18</v>
@@ -5360,7 +5427,7 @@
         <v>26</v>
       </c>
       <c r="AZ27" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="BA27" t="n">
         <v>15</v>
@@ -5381,7 +5448,7 @@
       </c>
       <c r="BF27" t="inlineStr">
         <is>
-          <t>12-5-2013-14</t>
+          <t>2013-12-05</t>
         </is>
       </c>
     </row>
@@ -5476,7 +5543,7 @@
         <v>9.800000000000001</v>
       </c>
       <c r="AD28" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AE28" t="n">
         <v>3</v>
@@ -5536,7 +5603,7 @@
         <v>10</v>
       </c>
       <c r="AX28" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AY28" t="n">
         <v>7</v>
@@ -5563,7 +5630,7 @@
       </c>
       <c r="BF28" t="inlineStr">
         <is>
-          <t>12-5-2013-14</t>
+          <t>2013-12-05</t>
         </is>
       </c>
     </row>
@@ -5658,7 +5725,7 @@
         <v>-0.9</v>
       </c>
       <c r="AD29" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AE29" t="n">
         <v>23</v>
@@ -5679,7 +5746,7 @@
         <v>15</v>
       </c>
       <c r="AK29" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AL29" t="n">
         <v>18</v>
@@ -5688,7 +5755,7 @@
         <v>14</v>
       </c>
       <c r="AN29" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AO29" t="n">
         <v>6</v>
@@ -5697,13 +5764,13 @@
         <v>8</v>
       </c>
       <c r="AQ29" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AR29" t="n">
         <v>4</v>
       </c>
       <c r="AS29" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AT29" t="n">
         <v>13</v>
@@ -5745,7 +5812,7 @@
       </c>
       <c r="BF29" t="inlineStr">
         <is>
-          <t>12-5-2013-14</t>
+          <t>2013-12-05</t>
         </is>
       </c>
     </row>
@@ -5849,10 +5916,10 @@
         <v>30</v>
       </c>
       <c r="AG30" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AH30" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AI30" t="n">
         <v>27</v>
@@ -5861,7 +5928,7 @@
         <v>26</v>
       </c>
       <c r="AK30" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AL30" t="n">
         <v>27</v>
@@ -5888,16 +5955,16 @@
         <v>30</v>
       </c>
       <c r="AT30" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AU30" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AV30" t="n">
         <v>26</v>
       </c>
       <c r="AW30" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AX30" t="n">
         <v>28</v>
@@ -5909,7 +5976,7 @@
         <v>22</v>
       </c>
       <c r="BA30" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="BB30" t="n">
         <v>28</v>
@@ -5927,7 +5994,7 @@
       </c>
       <c r="BF30" t="inlineStr">
         <is>
-          <t>12-5-2013-14</t>
+          <t>2013-12-05</t>
         </is>
       </c>
     </row>
@@ -6022,16 +6089,16 @@
         <v>-0.6</v>
       </c>
       <c r="AD31" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AE31" t="n">
         <v>13</v>
       </c>
       <c r="AF31" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AG31" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AH31" t="n">
         <v>3</v>
@@ -6070,13 +6137,13 @@
         <v>17</v>
       </c>
       <c r="AT31" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AU31" t="n">
         <v>6</v>
       </c>
       <c r="AV31" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AW31" t="n">
         <v>5</v>
@@ -6109,7 +6176,7 @@
       </c>
       <c r="BF31" t="inlineStr">
         <is>
-          <t>12-5-2013-14</t>
+          <t>2013-12-05</t>
         </is>
       </c>
     </row>
